--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.020320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.020320.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2989,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3703,12 +3703,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3997,12 +3997,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4039,12 +4039,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4585,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4669,12 +4669,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6431,12 +6431,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6599,12 +6599,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6981,12 +6981,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7275,12 +7275,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7317,12 +7317,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7653,12 +7653,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7821,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8035,12 +8035,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8329,12 +8329,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9169,12 +9169,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9253,12 +9253,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9799,12 +9799,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10303,12 +10303,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10345,12 +10345,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10597,12 +10597,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10639,12 +10639,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10681,12 +10681,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11059,12 +11059,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11101,12 +11101,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11185,12 +11185,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11479,12 +11479,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11949,12 +11949,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12159,12 +12159,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12537,12 +12537,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13343,12 +13343,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13725,12 +13725,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13893,12 +13893,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14313,12 +14313,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14607,12 +14607,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14901,12 +14901,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14943,12 +14943,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15279,12 +15279,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15741,12 +15741,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16165,12 +16165,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16207,12 +16207,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16249,12 +16249,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16463,12 +16463,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16505,12 +16505,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16841,12 +16841,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17345,12 +17345,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17429,12 +17429,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17471,12 +17471,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17639,12 +17639,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17807,12 +17807,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18227,12 +18227,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18269,12 +18269,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18311,12 +18311,12 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18781,12 +18781,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18907,12 +18907,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19117,12 +19117,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19369,12 +19369,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19709,12 +19709,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20087,12 +20087,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20591,12 +20591,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20675,12 +20675,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20885,12 +20885,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21389,12 +21389,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22061,12 +22061,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22145,12 +22145,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22607,12 +22607,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22691,12 +22691,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23573,12 +23573,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23825,12 +23825,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23993,12 +23993,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24035,12 +24035,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24119,12 +24119,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24711,12 +24711,12 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24753,12 +24753,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24921,12 +24921,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25089,12 +25089,12 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25177,12 +25177,12 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25219,12 +25219,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25605,12 +25605,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25647,12 +25647,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25941,12 +25941,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26067,12 +26067,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26193,12 +26193,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26655,12 +26655,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26697,12 +26697,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26739,12 +26739,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27409,12 +27409,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27493,12 +27493,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27661,12 +27661,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27917,12 +27917,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28085,12 +28085,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28127,12 +28127,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28295,12 +28295,12 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28715,12 +28715,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29051,12 +29051,12 @@
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29849,12 +29849,12 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30483,12 +30483,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30819,12 +30819,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30903,12 +30903,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32627,12 +32627,12 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32963,12 +32963,12 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33047,12 +33047,12 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33215,12 +33215,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33257,12 +33257,12 @@
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33425,12 +33425,12 @@
       <c r="H784" t="inlineStr"/>
       <c r="I784" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33803,12 +33803,12 @@
       <c r="H793" t="inlineStr"/>
       <c r="I793" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
